--- a/data/prodlist/category/LOCAL BASIC,,1 SUB DEPARTEMEN.xlsx
+++ b/data/prodlist/category/LOCAL BASIC,,1 SUB DEPARTEMEN.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y0410\Desktop\category\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
-  <si>
-    <t>kdbarang</t>
-  </si>
-  <si>
-    <t>nmbarang</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>8993169811285</t>
   </si>
@@ -331,9 +328,6 @@
   </si>
   <si>
     <t>SEMBAKO</t>
-  </si>
-  <si>
-    <t>sub departemen</t>
   </si>
   <si>
     <t>00398</t>
@@ -410,6 +404,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -457,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -701,631 +698,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>